--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -680,11 +680,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>*OUTSIDE AUDITORS</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2741,7 +2737,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2788,7 +2784,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2835,7 +2831,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2882,7 +2878,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2921,7 +2917,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2984,7 +2980,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -680,7 +680,11 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>*OUTSIDE AUDITORS</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2737,7 +2741,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2784,7 +2788,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2831,7 +2835,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2878,7 +2882,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2917,7 +2921,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2980,7 +2984,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -682,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>*OUTSIDE AUDITORS</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -729,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -823,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -960,7 +960,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1068,7 +1068,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -682,7 +682,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -729,7 +729,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -776,7 +776,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -823,7 +823,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -870,7 +870,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +917,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -960,7 +960,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1011,7 +1011,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1068,7 +1068,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*OUTSIDE AUDITORS</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -2741,7 +2741,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2788,7 +2788,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2835,7 +2835,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2882,7 +2882,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -2921,7 +2921,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -2984,7 +2984,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -540,24 +540,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F4" t="inlineStr"/>
-      <c r="G4" t="inlineStr"/>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Bags 1,2</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
-      <c r="K4" t="inlineStr"/>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Bags 5-7</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr"/>
-      <c r="N4" t="inlineStr"/>
-      <c r="O4" t="inlineStr"/>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>Bags 1-4</t>
+        </is>
+      </c>
       <c r="P4" t="inlineStr"/>
       <c r="Q4" t="inlineStr"/>
-      <c r="R4" t="inlineStr"/>
-      <c r="S4" t="inlineStr"/>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Bags 5-8</t>
+        </is>
+      </c>
       <c r="T4" t="inlineStr"/>
       <c r="U4" t="inlineStr"/>
-      <c r="V4" t="inlineStr"/>
-      <c r="W4" t="inlineStr"/>
+      <c r="V4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="W4" t="inlineStr">
+        <is>
+          <t>Bags 1-3</t>
+        </is>
+      </c>
       <c r="X4" t="inlineStr"/>
       <c r="Y4" t="inlineStr"/>
     </row>
@@ -571,24 +611,64 @@
           <t xml:space="preserve"> </t>
         </is>
       </c>
-      <c r="F5" t="inlineStr"/>
-      <c r="G5" t="inlineStr"/>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brett </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr"/>
       <c r="I5" t="inlineStr"/>
-      <c r="J5" t="inlineStr"/>
-      <c r="K5" t="inlineStr"/>
+      <c r="J5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brett </t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="inlineStr"/>
-      <c r="N5" t="inlineStr"/>
-      <c r="O5" t="inlineStr"/>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 11</t>
+        </is>
+      </c>
       <c r="P5" t="inlineStr"/>
       <c r="Q5" t="inlineStr"/>
-      <c r="R5" t="inlineStr"/>
-      <c r="S5" t="inlineStr"/>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="T5" t="inlineStr"/>
       <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr"/>
-      <c r="W5" t="inlineStr"/>
+      <c r="V5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kim </t>
+        </is>
+      </c>
+      <c r="W5" t="inlineStr">
+        <is>
+          <t>Bag 8, SB 10</t>
+        </is>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="inlineStr"/>
     </row>
@@ -606,8 +686,16 @@
       <c r="G6" t="inlineStr"/>
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr"/>
-      <c r="K6" t="inlineStr"/>
+      <c r="J6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">DJ </t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Bag 1</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr"/>
@@ -618,8 +706,16 @@
       <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr"/>
       <c r="U6" t="inlineStr"/>
-      <c r="V6" t="inlineStr"/>
-      <c r="W6" t="inlineStr"/>
+      <c r="V6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ian </t>
+        </is>
+      </c>
+      <c r="W6" t="inlineStr">
+        <is>
+          <t>Bag 5, SB 11</t>
+        </is>
+      </c>
       <c r="X6" t="inlineStr"/>
       <c r="Y6" t="inlineStr"/>
     </row>
@@ -649,8 +745,16 @@
       <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr"/>
       <c r="U7" t="inlineStr"/>
-      <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
+      <c r="V7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Katherine </t>
+        </is>
+      </c>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t>Bag 6</t>
+        </is>
+      </c>
       <c r="X7" t="inlineStr"/>
       <c r="Y7" t="inlineStr"/>
     </row>
@@ -682,7 +786,7 @@
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
-          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>*OUTSIDE AUDITORS</t>
         </is>
       </c>
       <c r="O8" t="inlineStr"/>
@@ -729,7 +833,7 @@
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>4:30 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O9" t="inlineStr"/>
@@ -776,7 +880,7 @@
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="O10" t="inlineStr"/>
@@ -823,7 +927,7 @@
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr">
         <is>
-          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O11" t="inlineStr"/>
@@ -870,7 +974,7 @@
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t>11000 S CICERO AVE</t>
+          <t>MARIANO'S #517 +FUEL CTR-RX, OAK LAWN</t>
         </is>
       </c>
       <c r="O12" t="inlineStr"/>
@@ -917,7 +1021,7 @@
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
+          <t>11000 S CICERO AVE</t>
         </is>
       </c>
       <c r="O13" t="inlineStr"/>
@@ -960,7 +1064,7 @@
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr">
         <is>
-          <t>SET UP ON REG #1</t>
+          <t>https://goo.gl/maps/n5qPPg3gEsC2</t>
         </is>
       </c>
       <c r="O14" t="inlineStr"/>
@@ -1011,7 +1115,7 @@
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
+          <t>SET UP ON REG #1</t>
         </is>
       </c>
       <c r="O15" t="inlineStr"/>
@@ -1068,7 +1172,7 @@
       <c r="M16" t="inlineStr"/>
       <c r="N16" t="inlineStr">
         <is>
-          <t>*OUTSIDE AUDITORS</t>
+          <t xml:space="preserve">HABA &amp; LIQUOR RESET-REMAPPED </t>
         </is>
       </c>
       <c r="O16" t="inlineStr"/>
@@ -1626,7 +1730,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Elijah</t>
+          <t>Joseph</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1715,7 +1819,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1786,7 +1890,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1889,7 +1993,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Taylor</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -1957,9 +2061,21 @@
       </c>
       <c r="G28" t="inlineStr"/>
       <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>14)</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Taylor</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L28" t="inlineStr"/>
       <c r="M28" t="inlineStr">
         <is>
@@ -2065,11 +2181,7 @@
       <c r="G30" t="inlineStr"/>
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr"/>
-      <c r="J30" t="inlineStr">
-        <is>
-          <t>5:15 AM MEET AT THE OFFICE</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
@@ -2131,7 +2243,7 @@
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM MEET AT THE OFFICE</t>
         </is>
       </c>
       <c r="K31" t="inlineStr"/>
@@ -2159,7 +2271,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2194,7 +2306,7 @@
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K32" t="inlineStr"/>
@@ -2222,13 +2334,12 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store,
-Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
@@ -2254,7 +2365,7 @@
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K33" t="inlineStr"/>
@@ -2275,9 +2386,22 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr"/>
-      <c r="R33" t="inlineStr"/>
-      <c r="S33" t="inlineStr"/>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>17)</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>Nate</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>@ Store,
+Rx</t>
+        </is>
+      </c>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
@@ -2313,7 +2437,7 @@
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr">
         <is>
-          <t>W346 LUEDTKE LANE</t>
+          <t>DHILLON'S STATION HWY 33, HARTFORD</t>
         </is>
       </c>
       <c r="K34" t="inlineStr"/>
@@ -2368,7 +2492,7 @@
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+          <t>W346 LUEDTKE LANE</t>
         </is>
       </c>
       <c r="K35" t="inlineStr"/>
@@ -2390,11 +2514,7 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="R35" t="inlineStr"/>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
@@ -2430,7 +2550,11 @@
       </c>
       <c r="H36" t="inlineStr"/>
       <c r="I36" t="inlineStr"/>
-      <c r="J36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/sBbGZTSeFYGcwxAe7</t>
+        </is>
+      </c>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="inlineStr"/>
       <c r="M36" t="inlineStr">
@@ -2453,7 +2577,7 @@
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
@@ -2481,21 +2605,9 @@
       </c>
       <c r="G37" t="inlineStr"/>
       <c r="H37" t="inlineStr"/>
-      <c r="I37" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J37" t="inlineStr">
-        <is>
-          <t>Brett</t>
-        </is>
-      </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
       <c r="M37" t="inlineStr"/>
       <c r="N37" t="inlineStr"/>
@@ -2504,7 +2616,7 @@
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
@@ -2539,18 +2651,17 @@
       <c r="H38" t="inlineStr"/>
       <c r="I38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J38" t="inlineStr">
         <is>
-          <t>Lashaun</t>
+          <t>Brett</t>
         </is>
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>Driver,
-Optima</t>
+          <t>Equip</t>
         </is>
       </c>
       <c r="L38" t="inlineStr"/>
@@ -2561,7 +2672,7 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
@@ -2591,15 +2702,20 @@
       <c r="H39" t="inlineStr"/>
       <c r="I39" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J39" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="K39" t="inlineStr"/>
+          <t>Lashaun</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Driver,
+Optima</t>
+        </is>
+      </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="inlineStr">
@@ -2612,7 +2728,7 @@
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
@@ -2646,19 +2762,15 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr"/>
       <c r="L40" t="inlineStr"/>
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
@@ -2671,7 +2783,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2695,9 +2807,21 @@
       </c>
       <c r="G41" t="inlineStr"/>
       <c r="H41" t="inlineStr"/>
-      <c r="I41" t="inlineStr"/>
-      <c r="J41" t="inlineStr"/>
-      <c r="K41" t="inlineStr"/>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Lori</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L41" t="inlineStr"/>
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
@@ -2710,7 +2834,7 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
@@ -2741,7 +2865,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2749,7 +2873,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2778,17 +2902,13 @@
       <c r="G43" t="inlineStr"/>
       <c r="H43" t="inlineStr"/>
       <c r="I43" t="inlineStr"/>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
       <c r="K43" t="inlineStr"/>
       <c r="L43" t="inlineStr"/>
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2796,7 +2916,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2827,7 +2947,7 @@
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
         </is>
       </c>
       <c r="K44" t="inlineStr"/>
@@ -2835,7 +2955,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2843,7 +2963,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2874,7 +2994,7 @@
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="K45" t="inlineStr"/>
@@ -2882,13 +3002,17 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr"/>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
+        </is>
+      </c>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
@@ -2913,7 +3037,7 @@
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr">
         <is>
-          <t>DHILLON'S STATION IXONIA</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="K46" t="inlineStr"/>
@@ -2921,26 +3045,14 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R46" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+      <c r="Q46" t="inlineStr"/>
+      <c r="R46" t="inlineStr"/>
+      <c r="S46" t="inlineStr"/>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
@@ -2976,7 +3088,7 @@
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr">
         <is>
-          <t>W1168 AMERICAN ST HWY 16</t>
+          <t>DHILLON'S STATION IXONIA</t>
         </is>
       </c>
       <c r="K47" t="inlineStr"/>
@@ -2984,22 +3096,26 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Paul</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
       <c r="V47" t="inlineStr">
@@ -3031,7 +3147,7 @@
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
+          <t>W1168 AMERICAN ST HWY 16</t>
         </is>
       </c>
       <c r="K48" t="inlineStr"/>
@@ -3040,8 +3156,16 @@
       <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr"/>
-      <c r="R48" t="inlineStr"/>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>Paul</t>
+        </is>
+      </c>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
       <c r="U48" t="inlineStr"/>
@@ -3073,7 +3197,11 @@
       </c>
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr"/>
-      <c r="J49" t="inlineStr"/>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/YXYWpM5kCeT2</t>
+        </is>
+      </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
       <c r="M49" t="inlineStr">
@@ -3132,21 +3260,9 @@
       </c>
       <c r="G50" t="inlineStr"/>
       <c r="H50" t="inlineStr"/>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
@@ -3161,11 +3277,7 @@
       <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>6:00 AM START</t>
-        </is>
-      </c>
+      <c r="R50" t="inlineStr"/>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
@@ -3201,17 +3313,17 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>DJ</t>
         </is>
       </c>
       <c r="K51" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="L51" t="inlineStr"/>
@@ -3235,7 +3347,7 @@
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
@@ -3277,12 +3389,12 @@
       <c r="H52" t="inlineStr"/>
       <c r="I52" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="J52" t="inlineStr">
         <is>
-          <t>Aivy</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="K52" t="inlineStr">
@@ -3298,7 +3410,7 @@
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DHILLON'S HARTLAND VILLAGE MART</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3332,12 +3444,12 @@
       <c r="H53" t="inlineStr"/>
       <c r="I53" t="inlineStr">
         <is>
-          <t>4)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Sarah</t>
+          <t>Aivy</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
@@ -3353,7 +3465,7 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>301 E CAPITOL DR</t>
+          <t>DHILLON'S HARTLAND VILLAGE MART</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
@@ -3385,9 +3497,21 @@
         </is>
       </c>
       <c r="H54" t="inlineStr"/>
-      <c r="I54" t="inlineStr"/>
-      <c r="J54" t="inlineStr"/>
-      <c r="K54" t="inlineStr"/>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>4)</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Sarah</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
       <c r="N54" t="inlineStr">
@@ -3400,7 +3524,7 @@
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
+          <t>301 E CAPITOL DR</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3437,7 +3561,11 @@
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr"/>
+      <c r="R55" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
+        </is>
+      </c>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
@@ -3471,21 +3599,9 @@
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="Q56" t="inlineStr"/>
+      <c r="R56" t="inlineStr"/>
+      <c r="S56" t="inlineStr"/>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
@@ -3524,15 +3640,19 @@
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr"/>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
@@ -3575,12 +3695,12 @@
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Sonia</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3616,8 +3736,16 @@
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr"/>
-      <c r="R59" t="inlineStr"/>
+      <c r="Q59" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="R59" t="inlineStr">
+        <is>
+          <t>Sonia</t>
+        </is>
+      </c>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -784,11 +784,7 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>*OUTSIDE AUDITORS</t>
-        </is>
-      </c>
+      <c r="N8" t="inlineStr"/>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -2861,7 +2861,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2904,7 +2904,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2951,7 +2951,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2998,7 +2998,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3041,7 +3041,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3092,7 +3092,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -784,7 +784,11 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>*OUTSIDE AUDITORS</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -2314,7 +2318,7 @@
       </c>
       <c r="N32" t="inlineStr">
         <is>
-          <t>Eva</t>
+          <t>Elijah</t>
         </is>
       </c>
       <c r="O32" t="inlineStr">
@@ -2373,7 +2377,7 @@
       </c>
       <c r="N33" t="inlineStr">
         <is>
-          <t>Evelin</t>
+          <t>Eva</t>
         </is>
       </c>
       <c r="O33" t="inlineStr">
@@ -2402,7 +2406,7 @@
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DHILLON'S MOBIL, COLGATE</t>
+          <t>DHILLON'S  STATION LAKE 5 (MOBIL), COLGATE</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2445,7 +2449,7 @@
       </c>
       <c r="N34" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Evelin</t>
         </is>
       </c>
       <c r="O34" t="inlineStr">
@@ -2500,7 +2504,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Keshawn</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2560,13 +2564,12 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Qiana</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store,
-Supv Rx</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
@@ -2605,9 +2608,22 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr"/>
-      <c r="N37" t="inlineStr"/>
-      <c r="O37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>20)</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr">
+        <is>
+          <t>Qiana</t>
+        </is>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>@ Store,
+Supv Rx</t>
+        </is>
+      </c>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
@@ -2714,11 +2730,7 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr">
-        <is>
-          <t>5:00 AM MEET COLLEGE (SOUTHWEST)</t>
-        </is>
-      </c>
+      <c r="N39" t="inlineStr"/>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
@@ -2771,7 +2783,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>5:00 AM MEET COLLEGE (SOUTHWEST)</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2822,7 +2834,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2861,7 +2873,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2904,7 +2916,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2951,7 +2963,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2998,7 +3010,7 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
@@ -3041,7 +3053,7 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
@@ -3092,7 +3104,7 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>*NEW LOCATION</t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
@@ -3149,7 +3161,11 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr"/>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>*NEW LOCATION</t>
+        </is>
+      </c>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
       <c r="Q48" t="inlineStr">
@@ -3200,21 +3216,9 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O49" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+      <c r="M49" t="inlineStr"/>
+      <c r="N49" t="inlineStr"/>
+      <c r="O49" t="inlineStr"/>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3262,15 +3266,19 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr"/>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
       <c r="R50" t="inlineStr"/>
@@ -3305,7 +3313,11 @@
           <t>Stephanie</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
@@ -3325,20 +3337,15 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>3)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr"/>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
@@ -3399,9 +3406,22 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr"/>
-      <c r="N52" t="inlineStr"/>
-      <c r="O52" t="inlineStr"/>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>3)</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
@@ -3510,11 +3530,7 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>7:00 AM START</t>
-        </is>
-      </c>
+      <c r="N54" t="inlineStr"/>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
@@ -3551,7 +3567,7 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
@@ -3590,7 +3606,7 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>CONDON OIL #290, MARKESAN</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
@@ -3629,7 +3645,7 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>18 S MARGARET ST</t>
+          <t>CONDON OIL #290, MARKESAN</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
@@ -3684,7 +3700,7 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
+          <t>18 S MARGARET ST</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
@@ -3727,7 +3743,7 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
@@ -3770,7 +3786,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3805,7 +3821,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>CONDON OIL #260, FAIRWATER</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3840,7 +3856,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>108 ELM ST</t>
+          <t>CONDON OIL #260, FAIRWATER</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3875,7 +3891,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
+          <t>108 ELM ST</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3908,7 +3924,11 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr"/>
+      <c r="N64" t="inlineStr">
+        <is>
+          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
+        </is>
+      </c>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3938,21 +3958,9 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="N65" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
+      <c r="M65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+      <c r="O65" t="inlineStr"/>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
@@ -3979,17 +3987,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>1)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Michelle</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store, Equip</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -4028,9 +4036,21 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr"/>
-      <c r="N67" t="inlineStr"/>
-      <c r="O67" t="inlineStr"/>
+      <c r="M67" t="inlineStr">
+        <is>
+          <t>2)</t>
+        </is>
+      </c>
+      <c r="N67" t="inlineStr">
+        <is>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>@ Store</t>
+        </is>
+      </c>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
@@ -4095,11 +4115,7 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr">
-        <is>
-          <t>Office</t>
-        </is>
-      </c>
+      <c r="N69" t="inlineStr"/>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -4128,7 +4144,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Kim</t>
+          <t>Office</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4161,7 +4177,11 @@
       <c r="K71" t="inlineStr"/>
       <c r="L71" t="inlineStr"/>
       <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr"/>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
       <c r="O71" t="inlineStr"/>
       <c r="P71" t="inlineStr"/>
       <c r="Q71" t="inlineStr"/>

--- a/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
+++ b/09-15-24 to 09-21-24 Milwaukee Schedule.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y89"/>
+  <dimension ref="A1:Y70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,7 +784,11 @@
       <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="inlineStr"/>
-      <c r="N8" t="inlineStr"/>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>*OUTSIDE AUDITORS</t>
+        </is>
+      </c>
       <c r="O8" t="inlineStr"/>
       <c r="P8" t="inlineStr"/>
       <c r="Q8" t="inlineStr"/>
@@ -1726,7 +1730,7 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>Joseph</t>
+          <t>Josh S</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
@@ -1815,7 +1819,7 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Josh S</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="W24" t="inlineStr">
@@ -1886,7 +1890,7 @@
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="W25" t="inlineStr">
@@ -1958,7 +1962,7 @@
       </c>
       <c r="V26" t="inlineStr">
         <is>
-          <t>Nate</t>
+          <t>Taylor</t>
         </is>
       </c>
       <c r="W26" t="inlineStr">
@@ -2026,21 +2030,9 @@
         </is>
       </c>
       <c r="T27" t="inlineStr"/>
-      <c r="U27" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Taylor</t>
-        </is>
-      </c>
-      <c r="W27" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U27" t="inlineStr"/>
+      <c r="V27" t="inlineStr"/>
+      <c r="W27" t="inlineStr"/>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="inlineStr"/>
     </row>
@@ -2148,7 +2140,7 @@
       </c>
       <c r="R29" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="S29" t="inlineStr">
@@ -2158,7 +2150,11 @@
       </c>
       <c r="T29" t="inlineStr"/>
       <c r="U29" t="inlineStr"/>
-      <c r="V29" t="inlineStr"/>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>5:30 AM MEET OFFICE</t>
+        </is>
+      </c>
       <c r="W29" t="inlineStr"/>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="inlineStr"/>
@@ -2204,7 +2200,7 @@
       </c>
       <c r="R30" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Makeda</t>
         </is>
       </c>
       <c r="S30" t="inlineStr">
@@ -2216,7 +2212,7 @@
       <c r="U30" t="inlineStr"/>
       <c r="V30" t="inlineStr">
         <is>
-          <t>5:30 AM MEET OFFICE</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W30" t="inlineStr"/>
@@ -2267,7 +2263,7 @@
       </c>
       <c r="R31" t="inlineStr">
         <is>
-          <t>Makeda</t>
+          <t>Michael N</t>
         </is>
       </c>
       <c r="S31" t="inlineStr">
@@ -2279,7 +2275,7 @@
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W31" t="inlineStr"/>
@@ -2330,19 +2326,20 @@
       </c>
       <c r="R32" t="inlineStr">
         <is>
-          <t>Michael N</t>
+          <t>Nate</t>
         </is>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Rx</t>
         </is>
       </c>
       <c r="T32" t="inlineStr"/>
       <c r="U32" t="inlineStr"/>
       <c r="V32" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S  STATION LAKE 5 (MOBIL), COLGATE</t>
         </is>
       </c>
       <c r="W32" t="inlineStr"/>
@@ -2382,27 +2379,14 @@
         </is>
       </c>
       <c r="P33" t="inlineStr"/>
-      <c r="Q33" t="inlineStr">
-        <is>
-          <t>17)</t>
-        </is>
-      </c>
-      <c r="R33" t="inlineStr">
-        <is>
-          <t>Nate</t>
-        </is>
-      </c>
-      <c r="S33" t="inlineStr">
-        <is>
-          <t>@ Store,
-Rx</t>
-        </is>
-      </c>
+      <c r="Q33" t="inlineStr"/>
+      <c r="R33" t="inlineStr"/>
+      <c r="S33" t="inlineStr"/>
       <c r="T33" t="inlineStr"/>
       <c r="U33" t="inlineStr"/>
       <c r="V33" t="inlineStr">
         <is>
-          <t>DHILLON'S  STATION LAKE 5 (MOBIL), COLGATE</t>
+          <t>4522 HWY Q</t>
         </is>
       </c>
       <c r="W33" t="inlineStr"/>
@@ -2461,7 +2445,7 @@
       <c r="U34" t="inlineStr"/>
       <c r="V34" t="inlineStr">
         <is>
-          <t>4522 HWY Q</t>
+          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
         </is>
       </c>
       <c r="W34" t="inlineStr"/>
@@ -2500,7 +2484,7 @@
       </c>
       <c r="N35" t="inlineStr">
         <is>
-          <t>Keshawn</t>
+          <t>Lorena</t>
         </is>
       </c>
       <c r="O35" t="inlineStr">
@@ -2510,15 +2494,15 @@
       </c>
       <c r="P35" t="inlineStr"/>
       <c r="Q35" t="inlineStr"/>
-      <c r="R35" t="inlineStr"/>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="S35" t="inlineStr"/>
       <c r="T35" t="inlineStr"/>
       <c r="U35" t="inlineStr"/>
-      <c r="V35" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/4Gd7nmyouVsSpUj2A</t>
-        </is>
-      </c>
+      <c r="V35" t="inlineStr"/>
       <c r="W35" t="inlineStr"/>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="inlineStr"/>
@@ -2560,26 +2544,40 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>Lorena</t>
+          <t>Qiana</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
         <is>
-          <t>@ Store</t>
+          <t>@ Store,
+Supv Rx</t>
         </is>
       </c>
       <c r="P36" t="inlineStr"/>
       <c r="Q36" t="inlineStr"/>
       <c r="R36" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S36" t="inlineStr"/>
       <c r="T36" t="inlineStr"/>
-      <c r="U36" t="inlineStr"/>
-      <c r="V36" t="inlineStr"/>
-      <c r="W36" t="inlineStr"/>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Kim</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Driver,
+Sante Fe, Equip</t>
+        </is>
+      </c>
       <c r="X36" t="inlineStr"/>
       <c r="Y36" t="inlineStr"/>
     </row>
@@ -2604,47 +2602,29 @@
       <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
       <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>20)</t>
-        </is>
-      </c>
-      <c r="N37" t="inlineStr">
-        <is>
-          <t>Qiana</t>
-        </is>
-      </c>
-      <c r="O37" t="inlineStr">
-        <is>
-          <t>@ Store,
-Supv Rx</t>
-        </is>
-      </c>
+      <c r="M37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+      <c r="O37" t="inlineStr"/>
       <c r="P37" t="inlineStr"/>
       <c r="Q37" t="inlineStr"/>
       <c r="R37" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>OPEN PANTRY #605, BAYSIDE</t>
         </is>
       </c>
       <c r="S37" t="inlineStr"/>
       <c r="T37" t="inlineStr"/>
       <c r="U37" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V37" t="inlineStr">
         <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="W37" t="inlineStr">
-        <is>
-          <t>Driver,
-Sante Fe, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr"/>
       <c r="X37" t="inlineStr"/>
       <c r="Y37" t="inlineStr"/>
     </row>
@@ -2680,19 +2660,19 @@
       <c r="Q38" t="inlineStr"/>
       <c r="R38" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #605, BAYSIDE</t>
+          <t>501 W BROWN DEER RD</t>
         </is>
       </c>
       <c r="S38" t="inlineStr"/>
       <c r="T38" t="inlineStr"/>
       <c r="U38" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V38" t="inlineStr">
         <is>
-          <t>Paul</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="W38" t="inlineStr"/>
@@ -2726,27 +2706,23 @@
       </c>
       <c r="L39" t="inlineStr"/>
       <c r="M39" t="inlineStr"/>
-      <c r="N39" t="inlineStr"/>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET COLLEGE (SOUTHWEST)</t>
+        </is>
+      </c>
       <c r="O39" t="inlineStr"/>
       <c r="P39" t="inlineStr"/>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="inlineStr">
         <is>
-          <t>501 W BROWN DEER RD</t>
+          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
         </is>
       </c>
       <c r="S39" t="inlineStr"/>
       <c r="T39" t="inlineStr"/>
-      <c r="U39" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V39" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="U39" t="inlineStr"/>
+      <c r="V39" t="inlineStr"/>
       <c r="W39" t="inlineStr"/>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="inlineStr"/>
@@ -2779,7 +2755,7 @@
       <c r="M40" t="inlineStr"/>
       <c r="N40" t="inlineStr">
         <is>
-          <t>5:00 AM MEET COLLEGE (SOUTHWEST)</t>
+          <t>6:30 AM START</t>
         </is>
       </c>
       <c r="O40" t="inlineStr"/>
@@ -2787,7 +2763,7 @@
       <c r="Q40" t="inlineStr"/>
       <c r="R40" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/pQaSRAn88Vh6DAQ58</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="S40" t="inlineStr"/>
@@ -2830,7 +2806,7 @@
       <c r="M41" t="inlineStr"/>
       <c r="N41" t="inlineStr">
         <is>
-          <t>6:30 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="O41" t="inlineStr"/>
@@ -2838,13 +2814,17 @@
       <c r="Q41" t="inlineStr"/>
       <c r="R41" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>EXCEL FINANCIAL</t>
         </is>
       </c>
       <c r="S41" t="inlineStr"/>
       <c r="T41" t="inlineStr"/>
       <c r="U41" t="inlineStr"/>
-      <c r="V41" t="inlineStr"/>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t>5:00 AM MEET WATERTOWN PLANK</t>
+        </is>
+      </c>
       <c r="W41" t="inlineStr"/>
       <c r="X41" t="inlineStr"/>
       <c r="Y41" t="inlineStr"/>
@@ -2869,7 +2849,7 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
         </is>
       </c>
       <c r="O42" t="inlineStr"/>
@@ -2877,7 +2857,7 @@
       <c r="Q42" t="inlineStr"/>
       <c r="R42" t="inlineStr">
         <is>
-          <t>EXCEL FINANCIAL</t>
+          <t>OPEN PANTRY #614, MILWAUKEE</t>
         </is>
       </c>
       <c r="S42" t="inlineStr"/>
@@ -2885,7 +2865,7 @@
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr">
         <is>
-          <t>5:00 AM MEET WATERTOWN PLANK</t>
+          <t>6:00 AM START</t>
         </is>
       </c>
       <c r="W42" t="inlineStr"/>
@@ -2912,7 +2892,7 @@
       <c r="M43" t="inlineStr"/>
       <c r="N43" t="inlineStr">
         <is>
-          <t>AURORA OUTPATIENT RX #1516, OAK LAWN</t>
+          <t>4440 W 95TH ST, SUITE 1109E</t>
         </is>
       </c>
       <c r="O43" t="inlineStr"/>
@@ -2920,7 +2900,7 @@
       <c r="Q43" t="inlineStr"/>
       <c r="R43" t="inlineStr">
         <is>
-          <t>OPEN PANTRY #614, MILWAUKEE</t>
+          <t>3100 S 76TH ST</t>
         </is>
       </c>
       <c r="S43" t="inlineStr"/>
@@ -2928,7 +2908,7 @@
       <c r="U43" t="inlineStr"/>
       <c r="V43" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="W43" t="inlineStr"/>
@@ -2959,7 +2939,7 @@
       <c r="M44" t="inlineStr"/>
       <c r="N44" t="inlineStr">
         <is>
-          <t>4440 W 95TH ST, SUITE 1109E</t>
+          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
         </is>
       </c>
       <c r="O44" t="inlineStr"/>
@@ -2967,7 +2947,7 @@
       <c r="Q44" t="inlineStr"/>
       <c r="R44" t="inlineStr">
         <is>
-          <t>3100 S 76TH ST</t>
+          <t>https://goo.gl/maps/fpg1rAd58h22</t>
         </is>
       </c>
       <c r="S44" t="inlineStr"/>
@@ -2975,7 +2955,7 @@
       <c r="U44" t="inlineStr"/>
       <c r="V44" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S BP, MAYVILLE</t>
         </is>
       </c>
       <c r="W44" t="inlineStr"/>
@@ -3006,23 +2986,19 @@
       <c r="M45" t="inlineStr"/>
       <c r="N45" t="inlineStr">
         <is>
-          <t>https://maps.app.goo.gl/AhoCjas551Y24soH7</t>
+          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
         </is>
       </c>
       <c r="O45" t="inlineStr"/>
       <c r="P45" t="inlineStr"/>
       <c r="Q45" t="inlineStr"/>
-      <c r="R45" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/fpg1rAd58h22</t>
-        </is>
-      </c>
+      <c r="R45" t="inlineStr"/>
       <c r="S45" t="inlineStr"/>
       <c r="T45" t="inlineStr"/>
       <c r="U45" t="inlineStr"/>
       <c r="V45" t="inlineStr">
         <is>
-          <t>DHILLON'S BP, MAYVILLE</t>
+          <t>1400 HORICON ST</t>
         </is>
       </c>
       <c r="W45" t="inlineStr"/>
@@ -3049,19 +3025,31 @@
       <c r="M46" t="inlineStr"/>
       <c r="N46" t="inlineStr">
         <is>
-          <t xml:space="preserve">Per Lena (pharmacist) they are in a temp area in the main lobby of Hosp.  She mentioned they have frosted doors. </t>
+          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
         </is>
       </c>
       <c r="O46" t="inlineStr"/>
       <c r="P46" t="inlineStr"/>
-      <c r="Q46" t="inlineStr"/>
-      <c r="R46" t="inlineStr"/>
-      <c r="S46" t="inlineStr"/>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Gold Camry available, Equip</t>
+        </is>
+      </c>
       <c r="T46" t="inlineStr"/>
       <c r="U46" t="inlineStr"/>
       <c r="V46" t="inlineStr">
         <is>
-          <t>1400 HORICON ST</t>
+          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
         </is>
       </c>
       <c r="W46" t="inlineStr"/>
@@ -3100,33 +3088,25 @@
       <c r="M47" t="inlineStr"/>
       <c r="N47" t="inlineStr">
         <is>
-          <t>Suite number is the same 1109E. Lena will be there at 6:00 am if you need to call her (708) 520-8460</t>
+          <t>*NEW LOCATION</t>
         </is>
       </c>
       <c r="O47" t="inlineStr"/>
       <c r="P47" t="inlineStr"/>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>Gold Camry available, Equip</t>
-        </is>
-      </c>
+          <t>Paul</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr"/>
       <c r="T47" t="inlineStr"/>
       <c r="U47" t="inlineStr"/>
-      <c r="V47" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/UAmrX3SR6jD2</t>
-        </is>
-      </c>
+      <c r="V47" t="inlineStr"/>
       <c r="W47" t="inlineStr"/>
       <c r="X47" t="inlineStr"/>
       <c r="Y47" t="inlineStr"/>
@@ -3157,28 +3137,29 @@
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="inlineStr"/>
       <c r="M48" t="inlineStr"/>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>*NEW LOCATION</t>
-        </is>
-      </c>
+      <c r="N48" t="inlineStr"/>
       <c r="O48" t="inlineStr"/>
       <c r="P48" t="inlineStr"/>
-      <c r="Q48" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="R48" t="inlineStr">
-        <is>
-          <t>Paul</t>
-        </is>
-      </c>
+      <c r="Q48" t="inlineStr"/>
+      <c r="R48" t="inlineStr"/>
       <c r="S48" t="inlineStr"/>
       <c r="T48" t="inlineStr"/>
-      <c r="U48" t="inlineStr"/>
-      <c r="V48" t="inlineStr"/>
-      <c r="W48" t="inlineStr"/>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t>Ian</t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry, Equip</t>
+        </is>
+      </c>
       <c r="X48" t="inlineStr"/>
       <c r="Y48" t="inlineStr"/>
     </row>
@@ -3212,9 +3193,21 @@
       </c>
       <c r="K49" t="inlineStr"/>
       <c r="L49" t="inlineStr"/>
-      <c r="M49" t="inlineStr"/>
-      <c r="N49" t="inlineStr"/>
-      <c r="O49" t="inlineStr"/>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="P49" t="inlineStr"/>
       <c r="Q49" t="inlineStr"/>
       <c r="R49" t="inlineStr"/>
@@ -3222,20 +3215,15 @@
       <c r="T49" t="inlineStr"/>
       <c r="U49" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>Ian</t>
-        </is>
-      </c>
-      <c r="W49" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry, Equip</t>
-        </is>
-      </c>
+          <t>Curt</t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr"/>
       <c r="X49" t="inlineStr"/>
       <c r="Y49" t="inlineStr"/>
     </row>
@@ -3262,32 +3250,32 @@
       <c r="L50" t="inlineStr"/>
       <c r="M50" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N50" t="inlineStr">
         <is>
-          <t>Katherine</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Jerry D</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr"/>
       <c r="P50" t="inlineStr"/>
       <c r="Q50" t="inlineStr"/>
-      <c r="R50" t="inlineStr"/>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>6:00 AM START</t>
+        </is>
+      </c>
       <c r="S50" t="inlineStr"/>
       <c r="T50" t="inlineStr"/>
       <c r="U50" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="V50" t="inlineStr">
         <is>
-          <t>Curt</t>
+          <t>Greg</t>
         </is>
       </c>
       <c r="W50" t="inlineStr"/>
@@ -3333,34 +3321,31 @@
       <c r="L51" t="inlineStr"/>
       <c r="M51" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="N51" t="inlineStr">
         <is>
-          <t>Jerry D</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr"/>
+          <t>Sue</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>Driver,
+Gold Camry</t>
+        </is>
+      </c>
       <c r="P51" t="inlineStr"/>
       <c r="Q51" t="inlineStr"/>
       <c r="R51" t="inlineStr">
         <is>
-          <t>6:00 AM START</t>
+          <t>DC5-ITEM LEVEL</t>
         </is>
       </c>
       <c r="S51" t="inlineStr"/>
       <c r="T51" t="inlineStr"/>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>Greg</t>
-        </is>
-      </c>
+      <c r="U51" t="inlineStr"/>
+      <c r="V51" t="inlineStr"/>
       <c r="W51" t="inlineStr"/>
       <c r="X51" t="inlineStr"/>
       <c r="Y51" t="inlineStr"/>
@@ -3402,27 +3387,14 @@
         </is>
       </c>
       <c r="L52" t="inlineStr"/>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>Sue</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>Driver,
-Gold Camry</t>
-        </is>
-      </c>
+      <c r="M52" t="inlineStr"/>
+      <c r="N52" t="inlineStr"/>
+      <c r="O52" t="inlineStr"/>
       <c r="P52" t="inlineStr"/>
       <c r="Q52" t="inlineStr"/>
       <c r="R52" t="inlineStr">
         <is>
-          <t>DC5-ITEM LEVEL</t>
+          <t>DHILLON'S HARTLAND VILLAGE MART</t>
         </is>
       </c>
       <c r="S52" t="inlineStr"/>
@@ -3477,13 +3449,17 @@
       <c r="Q53" t="inlineStr"/>
       <c r="R53" t="inlineStr">
         <is>
-          <t>DHILLON'S HARTLAND VILLAGE MART</t>
+          <t>301 E CAPITOL DR</t>
         </is>
       </c>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
       <c r="U53" t="inlineStr"/>
-      <c r="V53" t="inlineStr"/>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>5:15 AM OFFICE LEAVE TIME</t>
+        </is>
+      </c>
       <c r="W53" t="inlineStr"/>
       <c r="X53" t="inlineStr"/>
       <c r="Y53" t="inlineStr"/>
@@ -3526,13 +3502,17 @@
       </c>
       <c r="L54" t="inlineStr"/>
       <c r="M54" t="inlineStr"/>
-      <c r="N54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>7:00 AM START</t>
+        </is>
+      </c>
       <c r="O54" t="inlineStr"/>
       <c r="P54" t="inlineStr"/>
       <c r="Q54" t="inlineStr"/>
       <c r="R54" t="inlineStr">
         <is>
-          <t>301 E CAPITOL DR</t>
+          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
         </is>
       </c>
       <c r="S54" t="inlineStr"/>
@@ -3540,7 +3520,7 @@
       <c r="U54" t="inlineStr"/>
       <c r="V54" t="inlineStr">
         <is>
-          <t>5:15 AM OFFICE LEAVE TIME</t>
+          <t>7:00 AM START</t>
         </is>
       </c>
       <c r="W54" t="inlineStr"/>
@@ -3563,23 +3543,19 @@
       <c r="M55" t="inlineStr"/>
       <c r="N55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O55" t="inlineStr"/>
       <c r="P55" t="inlineStr"/>
       <c r="Q55" t="inlineStr"/>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/D7P2Btvsg3y</t>
-        </is>
-      </c>
+      <c r="R55" t="inlineStr"/>
       <c r="S55" t="inlineStr"/>
       <c r="T55" t="inlineStr"/>
       <c r="U55" t="inlineStr"/>
       <c r="V55" t="inlineStr">
         <is>
-          <t>7:00 AM START</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W55" t="inlineStr"/>
@@ -3602,19 +3578,31 @@
       <c r="M56" t="inlineStr"/>
       <c r="N56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #290, MARKESAN</t>
         </is>
       </c>
       <c r="O56" t="inlineStr"/>
       <c r="P56" t="inlineStr"/>
-      <c r="Q56" t="inlineStr"/>
-      <c r="R56" t="inlineStr"/>
-      <c r="S56" t="inlineStr"/>
+      <c r="Q56" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="R56" t="inlineStr">
+        <is>
+          <t>DJ</t>
+        </is>
+      </c>
+      <c r="S56" t="inlineStr">
+        <is>
+          <t>Equip</t>
+        </is>
+      </c>
       <c r="T56" t="inlineStr"/>
       <c r="U56" t="inlineStr"/>
       <c r="V56" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #255, BERLIN</t>
         </is>
       </c>
       <c r="W56" t="inlineStr"/>
@@ -3641,31 +3629,27 @@
       <c r="M57" t="inlineStr"/>
       <c r="N57" t="inlineStr">
         <is>
-          <t>CONDON OIL #290, MARKESAN</t>
+          <t>18 S MARGARET ST</t>
         </is>
       </c>
       <c r="O57" t="inlineStr"/>
       <c r="P57" t="inlineStr"/>
       <c r="Q57" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="R57" t="inlineStr">
         <is>
-          <t>DJ</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>Equip</t>
-        </is>
-      </c>
+          <t>Carlie</t>
+        </is>
+      </c>
+      <c r="S57" t="inlineStr"/>
       <c r="T57" t="inlineStr"/>
       <c r="U57" t="inlineStr"/>
       <c r="V57" t="inlineStr">
         <is>
-          <t>CONDON OIL #255, BERLIN</t>
+          <t>247 RIPON RD</t>
         </is>
       </c>
       <c r="W57" t="inlineStr"/>
@@ -3696,19 +3680,19 @@
       <c r="M58" t="inlineStr"/>
       <c r="N58" t="inlineStr">
         <is>
-          <t>18 S MARGARET ST</t>
+          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
         </is>
       </c>
       <c r="O58" t="inlineStr"/>
       <c r="P58" t="inlineStr"/>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>2)</t>
+          <t>3)</t>
         </is>
       </c>
       <c r="R58" t="inlineStr">
         <is>
-          <t>Carlie</t>
+          <t>Sonia</t>
         </is>
       </c>
       <c r="S58" t="inlineStr"/>
@@ -3716,7 +3700,7 @@
       <c r="U58" t="inlineStr"/>
       <c r="V58" t="inlineStr">
         <is>
-          <t>247 RIPON RD</t>
+          <t>https://goo.gl/maps/8XMymShjjoM2</t>
         </is>
       </c>
       <c r="W58" t="inlineStr"/>
@@ -3739,27 +3723,19 @@
       <c r="M59" t="inlineStr"/>
       <c r="N59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/4VMgsyRFdPJ5dALe7</t>
+          <t xml:space="preserve">TO FOLLOW </t>
         </is>
       </c>
       <c r="O59" t="inlineStr"/>
       <c r="P59" t="inlineStr"/>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>Sonia</t>
-        </is>
-      </c>
+      <c r="Q59" t="inlineStr"/>
+      <c r="R59" t="inlineStr"/>
       <c r="S59" t="inlineStr"/>
       <c r="T59" t="inlineStr"/>
       <c r="U59" t="inlineStr"/>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://goo.gl/maps/8XMymShjjoM2</t>
+          <t>TO FOLLOW</t>
         </is>
       </c>
       <c r="W59" t="inlineStr"/>
@@ -3782,7 +3758,7 @@
       <c r="M60" t="inlineStr"/>
       <c r="N60" t="inlineStr">
         <is>
-          <t xml:space="preserve">TO FOLLOW </t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="O60" t="inlineStr"/>
@@ -3794,7 +3770,7 @@
       <c r="U60" t="inlineStr"/>
       <c r="V60" t="inlineStr">
         <is>
-          <t>TO FOLLOW</t>
+          <t>DC5-FINANCIAL</t>
         </is>
       </c>
       <c r="W60" t="inlineStr"/>
@@ -3817,7 +3793,7 @@
       <c r="M61" t="inlineStr"/>
       <c r="N61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #260, FAIRWATER</t>
         </is>
       </c>
       <c r="O61" t="inlineStr"/>
@@ -3829,7 +3805,7 @@
       <c r="U61" t="inlineStr"/>
       <c r="V61" t="inlineStr">
         <is>
-          <t>DC5-FINANCIAL</t>
+          <t>CONDON OIL #250, RIPON</t>
         </is>
       </c>
       <c r="W61" t="inlineStr"/>
@@ -3852,7 +3828,7 @@
       <c r="M62" t="inlineStr"/>
       <c r="N62" t="inlineStr">
         <is>
-          <t>CONDON OIL #260, FAIRWATER</t>
+          <t>108 ELM ST</t>
         </is>
       </c>
       <c r="O62" t="inlineStr"/>
@@ -3864,7 +3840,7 @@
       <c r="U62" t="inlineStr"/>
       <c r="V62" t="inlineStr">
         <is>
-          <t>CONDON OIL #250, RIPON</t>
+          <t>204 E FOND DU LAC ST</t>
         </is>
       </c>
       <c r="W62" t="inlineStr"/>
@@ -3887,7 +3863,7 @@
       <c r="M63" t="inlineStr"/>
       <c r="N63" t="inlineStr">
         <is>
-          <t>108 ELM ST</t>
+          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
         </is>
       </c>
       <c r="O63" t="inlineStr"/>
@@ -3899,7 +3875,7 @@
       <c r="U63" t="inlineStr"/>
       <c r="V63" t="inlineStr">
         <is>
-          <t>204 E FOND DU LAC ST</t>
+          <t>https://goo.gl/maps/iAdUTQdESnr</t>
         </is>
       </c>
       <c r="W63" t="inlineStr"/>
@@ -3920,11 +3896,7 @@
       <c r="K64" t="inlineStr"/>
       <c r="L64" t="inlineStr"/>
       <c r="M64" t="inlineStr"/>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/RaKo4DckN1J2</t>
-        </is>
-      </c>
+      <c r="N64" t="inlineStr"/>
       <c r="O64" t="inlineStr"/>
       <c r="P64" t="inlineStr"/>
       <c r="Q64" t="inlineStr"/>
@@ -3932,11 +3904,7 @@
       <c r="S64" t="inlineStr"/>
       <c r="T64" t="inlineStr"/>
       <c r="U64" t="inlineStr"/>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/iAdUTQdESnr</t>
-        </is>
-      </c>
+      <c r="V64" t="inlineStr"/>
       <c r="W64" t="inlineStr"/>
       <c r="X64" t="inlineStr"/>
       <c r="Y64" t="inlineStr"/>
@@ -3954,17 +3922,41 @@
       <c r="J65" t="inlineStr"/>
       <c r="K65" t="inlineStr"/>
       <c r="L65" t="inlineStr"/>
-      <c r="M65" t="inlineStr"/>
-      <c r="N65" t="inlineStr"/>
-      <c r="O65" t="inlineStr"/>
+      <c r="M65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="N65" t="inlineStr">
+        <is>
+          <t>Michelle</t>
+        </is>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>@ Store, Equip</t>
+        </is>
+      </c>
       <c r="P65" t="inlineStr"/>
       <c r="Q65" t="inlineStr"/>
       <c r="R65" t="inlineStr"/>
       <c r="S65" t="inlineStr"/>
       <c r="T65" t="inlineStr"/>
-      <c r="U65" t="inlineStr"/>
-      <c r="V65" t="inlineStr"/>
-      <c r="W65" t="inlineStr"/>
+      <c r="U65" t="inlineStr">
+        <is>
+          <t>1)</t>
+        </is>
+      </c>
+      <c r="V65" t="inlineStr">
+        <is>
+          <t>Katherine</t>
+        </is>
+      </c>
+      <c r="W65" t="inlineStr">
+        <is>
+          <t>Optima, Equip</t>
+        </is>
+      </c>
       <c r="X65" t="inlineStr"/>
       <c r="Y65" t="inlineStr"/>
     </row>
@@ -3983,17 +3975,17 @@
       <c r="L66" t="inlineStr"/>
       <c r="M66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="N66" t="inlineStr">
         <is>
-          <t>Michelle</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="O66" t="inlineStr">
         <is>
-          <t>@ Store, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="P66" t="inlineStr"/>
@@ -4003,17 +3995,17 @@
       <c r="T66" t="inlineStr"/>
       <c r="U66" t="inlineStr">
         <is>
-          <t>1)</t>
+          <t>2)</t>
         </is>
       </c>
       <c r="V66" t="inlineStr">
         <is>
-          <t>Katherine</t>
+          <t>Carlie</t>
         </is>
       </c>
       <c r="W66" t="inlineStr">
         <is>
-          <t>Optima, Equip</t>
+          <t>@ Store</t>
         </is>
       </c>
       <c r="X66" t="inlineStr"/>
@@ -4032,41 +4024,17 @@
       <c r="J67" t="inlineStr"/>
       <c r="K67" t="inlineStr"/>
       <c r="L67" t="inlineStr"/>
-      <c r="M67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="N67" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="O67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="M67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+      <c r="O67" t="inlineStr"/>
       <c r="P67" t="inlineStr"/>
       <c r="Q67" t="inlineStr"/>
       <c r="R67" t="inlineStr"/>
       <c r="S67" t="inlineStr"/>
       <c r="T67" t="inlineStr"/>
-      <c r="U67" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V67" t="inlineStr">
-        <is>
-          <t>Carlie</t>
-        </is>
-      </c>
-      <c r="W67" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
+      <c r="U67" t="inlineStr"/>
+      <c r="V67" t="inlineStr"/>
+      <c r="W67" t="inlineStr"/>
       <c r="X67" t="inlineStr"/>
       <c r="Y67" t="inlineStr"/>
     </row>
@@ -4111,7 +4079,11 @@
       <c r="K69" t="inlineStr"/>
       <c r="L69" t="inlineStr"/>
       <c r="M69" t="inlineStr"/>
-      <c r="N69" t="inlineStr"/>
+      <c r="N69" t="inlineStr">
+        <is>
+          <t>Office</t>
+        </is>
+      </c>
       <c r="O69" t="inlineStr"/>
       <c r="P69" t="inlineStr"/>
       <c r="Q69" t="inlineStr"/>
@@ -4140,7 +4112,7 @@
       <c r="M70" t="inlineStr"/>
       <c r="N70" t="inlineStr">
         <is>
-          <t>Office</t>
+          <t>Kim</t>
         </is>
       </c>
       <c r="O70" t="inlineStr"/>
@@ -4150,699 +4122,10 @@
       <c r="S70" t="inlineStr"/>
       <c r="T70" t="inlineStr"/>
       <c r="U70" t="inlineStr"/>
-      <c r="V70" t="inlineStr">
-        <is>
-          <t>6:30 AM START</t>
-        </is>
-      </c>
+      <c r="V70" t="inlineStr"/>
       <c r="W70" t="inlineStr"/>
       <c r="X70" t="inlineStr"/>
       <c r="Y70" t="inlineStr"/>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr"/>
-      <c r="B71" t="inlineStr"/>
-      <c r="C71" t="inlineStr"/>
-      <c r="D71" t="inlineStr"/>
-      <c r="E71" t="inlineStr"/>
-      <c r="F71" t="inlineStr"/>
-      <c r="G71" t="inlineStr"/>
-      <c r="H71" t="inlineStr"/>
-      <c r="I71" t="inlineStr"/>
-      <c r="J71" t="inlineStr"/>
-      <c r="K71" t="inlineStr"/>
-      <c r="L71" t="inlineStr"/>
-      <c r="M71" t="inlineStr"/>
-      <c r="N71" t="inlineStr">
-        <is>
-          <t>Kim</t>
-        </is>
-      </c>
-      <c r="O71" t="inlineStr"/>
-      <c r="P71" t="inlineStr"/>
-      <c r="Q71" t="inlineStr"/>
-      <c r="R71" t="inlineStr"/>
-      <c r="S71" t="inlineStr"/>
-      <c r="T71" t="inlineStr"/>
-      <c r="U71" t="inlineStr"/>
-      <c r="V71" t="inlineStr">
-        <is>
-          <t>DC5-FINANCIAL</t>
-        </is>
-      </c>
-      <c r="W71" t="inlineStr"/>
-      <c r="X71" t="inlineStr"/>
-      <c r="Y71" t="inlineStr"/>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr"/>
-      <c r="B72" t="inlineStr"/>
-      <c r="C72" t="inlineStr"/>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr"/>
-      <c r="F72" t="inlineStr"/>
-      <c r="G72" t="inlineStr"/>
-      <c r="H72" t="inlineStr"/>
-      <c r="I72" t="inlineStr"/>
-      <c r="J72" t="inlineStr"/>
-      <c r="K72" t="inlineStr"/>
-      <c r="L72" t="inlineStr"/>
-      <c r="M72" t="inlineStr"/>
-      <c r="N72" t="inlineStr"/>
-      <c r="O72" t="inlineStr"/>
-      <c r="P72" t="inlineStr"/>
-      <c r="Q72" t="inlineStr"/>
-      <c r="R72" t="inlineStr"/>
-      <c r="S72" t="inlineStr"/>
-      <c r="T72" t="inlineStr"/>
-      <c r="U72" t="inlineStr"/>
-      <c r="V72" t="inlineStr">
-        <is>
-          <t>FESTIVAL #2693, STEVENS POINT - LIFO</t>
-        </is>
-      </c>
-      <c r="W72" t="inlineStr"/>
-      <c r="X72" t="inlineStr"/>
-      <c r="Y72" t="inlineStr"/>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr"/>
-      <c r="B73" t="inlineStr"/>
-      <c r="C73" t="inlineStr"/>
-      <c r="D73" t="inlineStr"/>
-      <c r="E73" t="inlineStr"/>
-      <c r="F73" t="inlineStr"/>
-      <c r="G73" t="inlineStr"/>
-      <c r="H73" t="inlineStr"/>
-      <c r="I73" t="inlineStr"/>
-      <c r="J73" t="inlineStr"/>
-      <c r="K73" t="inlineStr"/>
-      <c r="L73" t="inlineStr"/>
-      <c r="M73" t="inlineStr"/>
-      <c r="N73" t="inlineStr"/>
-      <c r="O73" t="inlineStr"/>
-      <c r="P73" t="inlineStr"/>
-      <c r="Q73" t="inlineStr"/>
-      <c r="R73" t="inlineStr"/>
-      <c r="S73" t="inlineStr"/>
-      <c r="T73" t="inlineStr"/>
-      <c r="U73" t="inlineStr"/>
-      <c r="V73" t="inlineStr">
-        <is>
-          <t>1600 ACADEMY DR</t>
-        </is>
-      </c>
-      <c r="W73" t="inlineStr"/>
-      <c r="X73" t="inlineStr"/>
-      <c r="Y73" t="inlineStr"/>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr"/>
-      <c r="B74" t="inlineStr"/>
-      <c r="C74" t="inlineStr"/>
-      <c r="D74" t="inlineStr"/>
-      <c r="E74" t="inlineStr"/>
-      <c r="F74" t="inlineStr"/>
-      <c r="G74" t="inlineStr"/>
-      <c r="H74" t="inlineStr"/>
-      <c r="I74" t="inlineStr"/>
-      <c r="J74" t="inlineStr"/>
-      <c r="K74" t="inlineStr"/>
-      <c r="L74" t="inlineStr"/>
-      <c r="M74" t="inlineStr"/>
-      <c r="N74" t="inlineStr"/>
-      <c r="O74" t="inlineStr"/>
-      <c r="P74" t="inlineStr"/>
-      <c r="Q74" t="inlineStr"/>
-      <c r="R74" t="inlineStr"/>
-      <c r="S74" t="inlineStr"/>
-      <c r="T74" t="inlineStr"/>
-      <c r="U74" t="inlineStr"/>
-      <c r="V74" t="inlineStr">
-        <is>
-          <t>https://goo.gl/maps/9atNgUjfZf2FLKDK9</t>
-        </is>
-      </c>
-      <c r="W74" t="inlineStr"/>
-      <c r="X74" t="inlineStr"/>
-      <c r="Y74" t="inlineStr"/>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr"/>
-      <c r="B75" t="inlineStr"/>
-      <c r="C75" t="inlineStr"/>
-      <c r="D75" t="inlineStr"/>
-      <c r="E75" t="inlineStr"/>
-      <c r="F75" t="inlineStr"/>
-      <c r="G75" t="inlineStr"/>
-      <c r="H75" t="inlineStr"/>
-      <c r="I75" t="inlineStr"/>
-      <c r="J75" t="inlineStr"/>
-      <c r="K75" t="inlineStr"/>
-      <c r="L75" t="inlineStr"/>
-      <c r="M75" t="inlineStr"/>
-      <c r="N75" t="inlineStr"/>
-      <c r="O75" t="inlineStr"/>
-      <c r="P75" t="inlineStr"/>
-      <c r="Q75" t="inlineStr"/>
-      <c r="R75" t="inlineStr"/>
-      <c r="S75" t="inlineStr"/>
-      <c r="T75" t="inlineStr"/>
-      <c r="U75" t="inlineStr"/>
-      <c r="V75" t="inlineStr">
-        <is>
-          <t>SOME FLIPPING OF PRODUCT IN BEV CORNER-NOT REMAPPED</t>
-        </is>
-      </c>
-      <c r="W75" t="inlineStr"/>
-      <c r="X75" t="inlineStr"/>
-      <c r="Y75" t="inlineStr"/>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr"/>
-      <c r="B76" t="inlineStr"/>
-      <c r="C76" t="inlineStr"/>
-      <c r="D76" t="inlineStr"/>
-      <c r="E76" t="inlineStr"/>
-      <c r="F76" t="inlineStr"/>
-      <c r="G76" t="inlineStr"/>
-      <c r="H76" t="inlineStr"/>
-      <c r="I76" t="inlineStr"/>
-      <c r="J76" t="inlineStr"/>
-      <c r="K76" t="inlineStr"/>
-      <c r="L76" t="inlineStr"/>
-      <c r="M76" t="inlineStr"/>
-      <c r="N76" t="inlineStr"/>
-      <c r="O76" t="inlineStr"/>
-      <c r="P76" t="inlineStr"/>
-      <c r="Q76" t="inlineStr"/>
-      <c r="R76" t="inlineStr"/>
-      <c r="S76" t="inlineStr"/>
-      <c r="T76" t="inlineStr"/>
-      <c r="U76" t="inlineStr"/>
-      <c r="V76" t="inlineStr">
-        <is>
-          <t>*Trevor - no meet for this Stevens Point store</t>
-        </is>
-      </c>
-      <c r="W76" t="inlineStr"/>
-      <c r="X76" t="inlineStr"/>
-      <c r="Y76" t="inlineStr"/>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
-      <c r="B77" t="inlineStr"/>
-      <c r="C77" t="inlineStr"/>
-      <c r="D77" t="inlineStr"/>
-      <c r="E77" t="inlineStr"/>
-      <c r="F77" t="inlineStr"/>
-      <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr"/>
-      <c r="I77" t="inlineStr"/>
-      <c r="J77" t="inlineStr"/>
-      <c r="K77" t="inlineStr"/>
-      <c r="L77" t="inlineStr"/>
-      <c r="M77" t="inlineStr"/>
-      <c r="N77" t="inlineStr"/>
-      <c r="O77" t="inlineStr"/>
-      <c r="P77" t="inlineStr"/>
-      <c r="Q77" t="inlineStr"/>
-      <c r="R77" t="inlineStr"/>
-      <c r="S77" t="inlineStr"/>
-      <c r="T77" t="inlineStr"/>
-      <c r="U77" t="inlineStr"/>
-      <c r="V77" t="inlineStr"/>
-      <c r="W77" t="inlineStr"/>
-      <c r="X77" t="inlineStr"/>
-      <c r="Y77" t="inlineStr"/>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr"/>
-      <c r="B78" t="inlineStr"/>
-      <c r="C78" t="inlineStr"/>
-      <c r="D78" t="inlineStr"/>
-      <c r="E78" t="inlineStr"/>
-      <c r="F78" t="inlineStr"/>
-      <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr"/>
-      <c r="I78" t="inlineStr"/>
-      <c r="J78" t="inlineStr"/>
-      <c r="K78" t="inlineStr"/>
-      <c r="L78" t="inlineStr"/>
-      <c r="M78" t="inlineStr"/>
-      <c r="N78" t="inlineStr"/>
-      <c r="O78" t="inlineStr"/>
-      <c r="P78" t="inlineStr"/>
-      <c r="Q78" t="inlineStr"/>
-      <c r="R78" t="inlineStr"/>
-      <c r="S78" t="inlineStr"/>
-      <c r="T78" t="inlineStr"/>
-      <c r="U78" t="inlineStr">
-        <is>
-          <t>1)</t>
-        </is>
-      </c>
-      <c r="V78" t="inlineStr">
-        <is>
-          <t>Jeremiah</t>
-        </is>
-      </c>
-      <c r="W78" t="inlineStr">
-        <is>
-          <t>@ Store, Equip</t>
-        </is>
-      </c>
-      <c r="X78" t="inlineStr"/>
-      <c r="Y78" t="inlineStr"/>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr"/>
-      <c r="B79" t="inlineStr"/>
-      <c r="C79" t="inlineStr"/>
-      <c r="D79" t="inlineStr"/>
-      <c r="E79" t="inlineStr"/>
-      <c r="F79" t="inlineStr"/>
-      <c r="G79" t="inlineStr"/>
-      <c r="H79" t="inlineStr"/>
-      <c r="I79" t="inlineStr"/>
-      <c r="J79" t="inlineStr"/>
-      <c r="K79" t="inlineStr"/>
-      <c r="L79" t="inlineStr"/>
-      <c r="M79" t="inlineStr"/>
-      <c r="N79" t="inlineStr"/>
-      <c r="O79" t="inlineStr"/>
-      <c r="P79" t="inlineStr"/>
-      <c r="Q79" t="inlineStr"/>
-      <c r="R79" t="inlineStr"/>
-      <c r="S79" t="inlineStr"/>
-      <c r="T79" t="inlineStr"/>
-      <c r="U79" t="inlineStr">
-        <is>
-          <t>2)</t>
-        </is>
-      </c>
-      <c r="V79" t="inlineStr">
-        <is>
-          <t>Aivy</t>
-        </is>
-      </c>
-      <c r="W79" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X79" t="inlineStr"/>
-      <c r="Y79" t="inlineStr"/>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr"/>
-      <c r="B80" t="inlineStr"/>
-      <c r="C80" t="inlineStr"/>
-      <c r="D80" t="inlineStr"/>
-      <c r="E80" t="inlineStr"/>
-      <c r="F80" t="inlineStr"/>
-      <c r="G80" t="inlineStr"/>
-      <c r="H80" t="inlineStr"/>
-      <c r="I80" t="inlineStr"/>
-      <c r="J80" t="inlineStr"/>
-      <c r="K80" t="inlineStr"/>
-      <c r="L80" t="inlineStr"/>
-      <c r="M80" t="inlineStr"/>
-      <c r="N80" t="inlineStr"/>
-      <c r="O80" t="inlineStr"/>
-      <c r="P80" t="inlineStr"/>
-      <c r="Q80" t="inlineStr"/>
-      <c r="R80" t="inlineStr"/>
-      <c r="S80" t="inlineStr"/>
-      <c r="T80" t="inlineStr"/>
-      <c r="U80" t="inlineStr">
-        <is>
-          <t>3)</t>
-        </is>
-      </c>
-      <c r="V80" t="inlineStr">
-        <is>
-          <t>Jacqui</t>
-        </is>
-      </c>
-      <c r="W80" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X80" t="inlineStr"/>
-      <c r="Y80" t="inlineStr"/>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr"/>
-      <c r="B81" t="inlineStr"/>
-      <c r="C81" t="inlineStr"/>
-      <c r="D81" t="inlineStr"/>
-      <c r="E81" t="inlineStr"/>
-      <c r="F81" t="inlineStr"/>
-      <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr"/>
-      <c r="I81" t="inlineStr"/>
-      <c r="J81" t="inlineStr"/>
-      <c r="K81" t="inlineStr"/>
-      <c r="L81" t="inlineStr"/>
-      <c r="M81" t="inlineStr"/>
-      <c r="N81" t="inlineStr"/>
-      <c r="O81" t="inlineStr"/>
-      <c r="P81" t="inlineStr"/>
-      <c r="Q81" t="inlineStr"/>
-      <c r="R81" t="inlineStr"/>
-      <c r="S81" t="inlineStr"/>
-      <c r="T81" t="inlineStr"/>
-      <c r="U81" t="inlineStr">
-        <is>
-          <t>4)</t>
-        </is>
-      </c>
-      <c r="V81" t="inlineStr">
-        <is>
-          <t>Jerry S</t>
-        </is>
-      </c>
-      <c r="W81" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X81" t="inlineStr"/>
-      <c r="Y81" t="inlineStr"/>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr"/>
-      <c r="B82" t="inlineStr"/>
-      <c r="C82" t="inlineStr"/>
-      <c r="D82" t="inlineStr"/>
-      <c r="E82" t="inlineStr"/>
-      <c r="F82" t="inlineStr"/>
-      <c r="G82" t="inlineStr"/>
-      <c r="H82" t="inlineStr"/>
-      <c r="I82" t="inlineStr"/>
-      <c r="J82" t="inlineStr"/>
-      <c r="K82" t="inlineStr"/>
-      <c r="L82" t="inlineStr"/>
-      <c r="M82" t="inlineStr"/>
-      <c r="N82" t="inlineStr"/>
-      <c r="O82" t="inlineStr"/>
-      <c r="P82" t="inlineStr"/>
-      <c r="Q82" t="inlineStr"/>
-      <c r="R82" t="inlineStr"/>
-      <c r="S82" t="inlineStr"/>
-      <c r="T82" t="inlineStr"/>
-      <c r="U82" t="inlineStr">
-        <is>
-          <t>5)</t>
-        </is>
-      </c>
-      <c r="V82" t="inlineStr">
-        <is>
-          <t>Josie</t>
-        </is>
-      </c>
-      <c r="W82" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X82" t="inlineStr"/>
-      <c r="Y82" t="inlineStr"/>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr"/>
-      <c r="B83" t="inlineStr"/>
-      <c r="C83" t="inlineStr"/>
-      <c r="D83" t="inlineStr"/>
-      <c r="E83" t="inlineStr"/>
-      <c r="F83" t="inlineStr"/>
-      <c r="G83" t="inlineStr"/>
-      <c r="H83" t="inlineStr"/>
-      <c r="I83" t="inlineStr"/>
-      <c r="J83" t="inlineStr"/>
-      <c r="K83" t="inlineStr"/>
-      <c r="L83" t="inlineStr"/>
-      <c r="M83" t="inlineStr"/>
-      <c r="N83" t="inlineStr"/>
-      <c r="O83" t="inlineStr"/>
-      <c r="P83" t="inlineStr"/>
-      <c r="Q83" t="inlineStr"/>
-      <c r="R83" t="inlineStr"/>
-      <c r="S83" t="inlineStr"/>
-      <c r="T83" t="inlineStr"/>
-      <c r="U83" t="inlineStr">
-        <is>
-          <t>6)</t>
-        </is>
-      </c>
-      <c r="V83" t="inlineStr">
-        <is>
-          <t>Kirsten</t>
-        </is>
-      </c>
-      <c r="W83" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X83" t="inlineStr"/>
-      <c r="Y83" t="inlineStr"/>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr"/>
-      <c r="B84" t="inlineStr"/>
-      <c r="C84" t="inlineStr"/>
-      <c r="D84" t="inlineStr"/>
-      <c r="E84" t="inlineStr"/>
-      <c r="F84" t="inlineStr"/>
-      <c r="G84" t="inlineStr"/>
-      <c r="H84" t="inlineStr"/>
-      <c r="I84" t="inlineStr"/>
-      <c r="J84" t="inlineStr"/>
-      <c r="K84" t="inlineStr"/>
-      <c r="L84" t="inlineStr"/>
-      <c r="M84" t="inlineStr"/>
-      <c r="N84" t="inlineStr"/>
-      <c r="O84" t="inlineStr"/>
-      <c r="P84" t="inlineStr"/>
-      <c r="Q84" t="inlineStr"/>
-      <c r="R84" t="inlineStr"/>
-      <c r="S84" t="inlineStr"/>
-      <c r="T84" t="inlineStr"/>
-      <c r="U84" t="inlineStr">
-        <is>
-          <t>7)</t>
-        </is>
-      </c>
-      <c r="V84" t="inlineStr">
-        <is>
-          <t>Lori</t>
-        </is>
-      </c>
-      <c r="W84" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X84" t="inlineStr"/>
-      <c r="Y84" t="inlineStr"/>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr"/>
-      <c r="B85" t="inlineStr"/>
-      <c r="C85" t="inlineStr"/>
-      <c r="D85" t="inlineStr"/>
-      <c r="E85" t="inlineStr"/>
-      <c r="F85" t="inlineStr"/>
-      <c r="G85" t="inlineStr"/>
-      <c r="H85" t="inlineStr"/>
-      <c r="I85" t="inlineStr"/>
-      <c r="J85" t="inlineStr"/>
-      <c r="K85" t="inlineStr"/>
-      <c r="L85" t="inlineStr"/>
-      <c r="M85" t="inlineStr"/>
-      <c r="N85" t="inlineStr"/>
-      <c r="O85" t="inlineStr"/>
-      <c r="P85" t="inlineStr"/>
-      <c r="Q85" t="inlineStr"/>
-      <c r="R85" t="inlineStr"/>
-      <c r="S85" t="inlineStr"/>
-      <c r="T85" t="inlineStr"/>
-      <c r="U85" t="inlineStr">
-        <is>
-          <t>8)</t>
-        </is>
-      </c>
-      <c r="V85" t="inlineStr">
-        <is>
-          <t>Marcia</t>
-        </is>
-      </c>
-      <c r="W85" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X85" t="inlineStr"/>
-      <c r="Y85" t="inlineStr"/>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr"/>
-      <c r="B86" t="inlineStr"/>
-      <c r="C86" t="inlineStr"/>
-      <c r="D86" t="inlineStr"/>
-      <c r="E86" t="inlineStr"/>
-      <c r="F86" t="inlineStr"/>
-      <c r="G86" t="inlineStr"/>
-      <c r="H86" t="inlineStr"/>
-      <c r="I86" t="inlineStr"/>
-      <c r="J86" t="inlineStr"/>
-      <c r="K86" t="inlineStr"/>
-      <c r="L86" t="inlineStr"/>
-      <c r="M86" t="inlineStr"/>
-      <c r="N86" t="inlineStr"/>
-      <c r="O86" t="inlineStr"/>
-      <c r="P86" t="inlineStr"/>
-      <c r="Q86" t="inlineStr"/>
-      <c r="R86" t="inlineStr"/>
-      <c r="S86" t="inlineStr"/>
-      <c r="T86" t="inlineStr"/>
-      <c r="U86" t="inlineStr">
-        <is>
-          <t>9)</t>
-        </is>
-      </c>
-      <c r="V86" t="inlineStr">
-        <is>
-          <t>Michelle</t>
-        </is>
-      </c>
-      <c r="W86" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X86" t="inlineStr"/>
-      <c r="Y86" t="inlineStr"/>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr"/>
-      <c r="B87" t="inlineStr"/>
-      <c r="C87" t="inlineStr"/>
-      <c r="D87" t="inlineStr"/>
-      <c r="E87" t="inlineStr"/>
-      <c r="F87" t="inlineStr"/>
-      <c r="G87" t="inlineStr"/>
-      <c r="H87" t="inlineStr"/>
-      <c r="I87" t="inlineStr"/>
-      <c r="J87" t="inlineStr"/>
-      <c r="K87" t="inlineStr"/>
-      <c r="L87" t="inlineStr"/>
-      <c r="M87" t="inlineStr"/>
-      <c r="N87" t="inlineStr"/>
-      <c r="O87" t="inlineStr"/>
-      <c r="P87" t="inlineStr"/>
-      <c r="Q87" t="inlineStr"/>
-      <c r="R87" t="inlineStr"/>
-      <c r="S87" t="inlineStr"/>
-      <c r="T87" t="inlineStr"/>
-      <c r="U87" t="inlineStr">
-        <is>
-          <t>10)</t>
-        </is>
-      </c>
-      <c r="V87" t="inlineStr">
-        <is>
-          <t>Nagui</t>
-        </is>
-      </c>
-      <c r="W87" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X87" t="inlineStr"/>
-      <c r="Y87" t="inlineStr"/>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr"/>
-      <c r="B88" t="inlineStr"/>
-      <c r="C88" t="inlineStr"/>
-      <c r="D88" t="inlineStr"/>
-      <c r="E88" t="inlineStr"/>
-      <c r="F88" t="inlineStr"/>
-      <c r="G88" t="inlineStr"/>
-      <c r="H88" t="inlineStr"/>
-      <c r="I88" t="inlineStr"/>
-      <c r="J88" t="inlineStr"/>
-      <c r="K88" t="inlineStr"/>
-      <c r="L88" t="inlineStr"/>
-      <c r="M88" t="inlineStr"/>
-      <c r="N88" t="inlineStr"/>
-      <c r="O88" t="inlineStr"/>
-      <c r="P88" t="inlineStr"/>
-      <c r="Q88" t="inlineStr"/>
-      <c r="R88" t="inlineStr"/>
-      <c r="S88" t="inlineStr"/>
-      <c r="T88" t="inlineStr"/>
-      <c r="U88" t="inlineStr">
-        <is>
-          <t>11)</t>
-        </is>
-      </c>
-      <c r="V88" t="inlineStr">
-        <is>
-          <t>Sarah</t>
-        </is>
-      </c>
-      <c r="W88" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X88" t="inlineStr"/>
-      <c r="Y88" t="inlineStr"/>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr"/>
-      <c r="B89" t="inlineStr"/>
-      <c r="C89" t="inlineStr"/>
-      <c r="D89" t="inlineStr"/>
-      <c r="E89" t="inlineStr"/>
-      <c r="F89" t="inlineStr"/>
-      <c r="G89" t="inlineStr"/>
-      <c r="H89" t="inlineStr"/>
-      <c r="I89" t="inlineStr"/>
-      <c r="J89" t="inlineStr"/>
-      <c r="K89" t="inlineStr"/>
-      <c r="L89" t="inlineStr"/>
-      <c r="M89" t="inlineStr"/>
-      <c r="N89" t="inlineStr"/>
-      <c r="O89" t="inlineStr"/>
-      <c r="P89" t="inlineStr"/>
-      <c r="Q89" t="inlineStr"/>
-      <c r="R89" t="inlineStr"/>
-      <c r="S89" t="inlineStr"/>
-      <c r="T89" t="inlineStr"/>
-      <c r="U89" t="inlineStr">
-        <is>
-          <t>12)</t>
-        </is>
-      </c>
-      <c r="V89" t="inlineStr">
-        <is>
-          <t>Trevor</t>
-        </is>
-      </c>
-      <c r="W89" t="inlineStr">
-        <is>
-          <t>@ Store</t>
-        </is>
-      </c>
-      <c r="X89" t="inlineStr"/>
-      <c r="Y89" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
